--- a/data_excel/MS.xlsx
+++ b/data_excel/MS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="148">
   <si>
     <t>idHitOurBlackList</t>
   </si>
@@ -71,2302 +71,1931 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNHIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED0601</t>
+  </si>
+  <si>
+    <t>申请人的身份证号命中本地黑灰名单库主贷人的身份证号</t>
+  </si>
+  <si>
+    <t>年龄-1_缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄18_未命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄25_未命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄17_命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人的身份证号命中本地黑灰名单库主贷人的身份证号_未命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人的身份证号命中本地黑灰名单库主贷人的身份证号_命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人的身份证号命中本地黑灰名单库主贷人的身份证号_-1缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人的手机号命中本地黑灰名单库主贷人的手机</t>
+  </si>
+  <si>
+    <t>申请人的手机号命中本地黑灰名单库主贷人的手机_未命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人的手机号命中本地黑灰名单库主贷人的手机_命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人的手机号命中本地黑灰名单库主贷人的手机_-1缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人的身份证号命中我方黑名单或申请人的手机号命中我方黑名单_-1缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证命中网贷黑名单</t>
+  </si>
+  <si>
+    <t>身份证命中网贷黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证命中网贷黑名单_未命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证命中网贷黑名单_命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证命中网贷黑名单_-1缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileHitOurBlackList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitTongDunRepeateLoanOneMonth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idHitTongDunCourtExecuteList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idNameHitTongDunFuzzyCourtBlackList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idHitTongDunLoanBlackList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人的身份证号命中我方黑名单或申请人的手机号命中我方黑名单_1_未命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人的身份证号命中我方黑名单或申请人的手机号命中我方黑名单_2_未命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人的身份证号命中我方黑名单或申请人的手机号命中我方黑名单_1_命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人的身份证号命中我方黑名单或申请人的手机号命中我方黑名单_2_命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号命中网贷黑名单</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机号命中网贷黑名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未命中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机号命中网贷黑名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机号命中网贷黑名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证和姓名命中网贷模糊黑名单</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证和姓名命中网贷模糊黑名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未命中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证和姓名命中网贷模糊黑名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证和姓名命中网贷模糊黑名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证命中法院失信名单</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证命中法院失信名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未命中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证命中法院失信名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证命中法院失信名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证和姓名命中网贷模糊黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证和姓名命中法院失信模糊名单</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证和姓名命中法院失信模糊名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未命中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证和姓名命中法院失信模糊名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证和姓名命中法院失信模糊名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证命中犯罪通缉名单</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证命中犯罪通缉名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未命中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证命中犯罪通缉名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证命中犯罪通缉名单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证命中法院执行名单_未命中</t>
+  </si>
+  <si>
+    <t>身份证命中法院执行名单_命中</t>
+  </si>
+  <si>
+    <t>身份证命中法院执行名单_-1缺失</t>
+  </si>
+  <si>
+    <t>身份证命中法院执行名单</t>
+  </si>
+  <si>
+    <t>身份证和姓名命中法院执行模糊名单_未命中</t>
+  </si>
+  <si>
+    <t>身份证和姓名命中法院执行模糊名单_命中</t>
+  </si>
+  <si>
+    <t>身份证和姓名命中法院执行模糊名单_-1缺失</t>
+  </si>
+  <si>
+    <t>身份证和姓名命中法院执行模糊名单</t>
+  </si>
+  <si>
+    <t>身份证命中公司法人失信名单_未命中</t>
+  </si>
+  <si>
+    <t>身份证命中公司法人失信名单</t>
+  </si>
+  <si>
+    <t>身份证命中公司法人失信名单_命中</t>
+  </si>
+  <si>
+    <t>身份证命中公司法人失信名单_-1缺失</t>
+  </si>
+  <si>
+    <t>手机号命中公司法人失信名单_未命中</t>
+  </si>
+  <si>
+    <t>手机号命中公司法人失信名单_命中</t>
+  </si>
+  <si>
+    <t>手机号命中公司法人失信名单_-1缺失</t>
+  </si>
+  <si>
+    <t>手机号命中公司法人失信名单</t>
+  </si>
+  <si>
+    <t>手机号命中贷款黑中介库_未命中</t>
+  </si>
+  <si>
+    <t>手机号命中贷款黑中介库_命中</t>
+  </si>
+  <si>
+    <t>手机号命中贷款黑中介库_-1缺失</t>
+  </si>
+  <si>
+    <t>手机号命中贷款黑中介库</t>
+  </si>
+  <si>
+    <t>同盾7天内多头借贷申请次数_-1缺失</t>
+  </si>
+  <si>
+    <t>ED020402</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天内多头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头占比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=0.7</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天内多头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头占比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;0.7</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天内多头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头占比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天内多头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头占比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;70%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天内多头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头占比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;70%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED0903</t>
+  </si>
+  <si>
+    <t>ED0902</t>
+  </si>
+  <si>
+    <t>同盾1个月内多头借贷申请次数_-1缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>hitBaiqishiRiskUserDecisionReject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中的中智诚黑名单数量大于等于1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中的中智诚黑名单数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中的中智诚黑名单数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中的中智诚黑名单数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中的中智诚黑名单数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitZhongzhichengBlackListCount</t>
+  </si>
+  <si>
+    <t>hitZhongzhichengTenantCount</t>
+  </si>
+  <si>
+    <t>命中的中智诚黑名单跨机构数大于等于1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中的中智诚黑名单跨机构数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中的中智诚黑名单跨机构数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中的中智诚黑名单跨机构数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中的中智诚黑名单跨机构数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险名单比对结果为拒绝</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风险名单比对结果为拒绝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未命中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风险名单比对结果为拒绝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风险名单比对结果为拒绝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED020413</t>
+  </si>
+  <si>
+    <t>ED0901</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=20</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;20</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=83</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;83</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=49</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内多头借贷申请次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=51</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同盾7天内多头借贷申请次数&gt;20</t>
+  </si>
+  <si>
+    <t>同盾1个月内多头借贷申请次数&gt;50</t>
+  </si>
+  <si>
+    <t>同盾3个月内多头借贷申请次数&gt;83</t>
+  </si>
+  <si>
+    <t>同盾1个月内多头借贷申请次数&gt;=50</t>
+  </si>
+  <si>
+    <t>tongdunFinalScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>年龄不属于[18,37]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>topic</t>
+    <t>年龄37_未命中</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNHIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ED0601</t>
-  </si>
-  <si>
-    <t>申请人的身份证号命中本地黑灰名单库主贷人的身份证号</t>
   </si>
   <si>
     <t>年龄38-命中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年龄-1_缺失</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>同盾分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=0</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年龄18_未命中</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>同盾分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=-1</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年龄37_未命中</t>
+    <t>tongdunFinalScore</t>
+  </si>
+  <si>
+    <t>ED0905</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年龄25_未命中</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>同盾分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;90</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年龄17_命中</t>
+    <t>同盾分=90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年龄为空_缺失</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>同盾分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;90</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人的身份证号命中本地黑灰名单库主贷人的身份证号_未命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人的身份证号命中本地黑灰名单库主贷人的身份证号_命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人的身份证号命中本地黑灰名单库主贷人的身份证号_-1缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人的身份证号命中本地黑灰名单库主贷人的身份证号_为空缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人的手机号命中本地黑灰名单库主贷人的手机</t>
-  </si>
-  <si>
-    <t>申请人的手机号命中本地黑灰名单库主贷人的手机_未命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人的手机号命中本地黑灰名单库主贷人的手机_命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人的手机号命中本地黑灰名单库主贷人的手机_-1缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人的手机号命中本地黑灰名单库主贷人的手机_为空缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人的身份证号命中我方黑名单或申请人的手机号命中我方黑名单_-1缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人的身份证号命中我方黑名单或申请人的手机号命中我方黑名单_为空缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证命中网贷黑名单</t>
-  </si>
-  <si>
-    <t>身份证命中网贷黑名单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证命中网贷黑名单_未命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证命中网贷黑名单_命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证命中网贷黑名单_-1缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证命中网贷黑名单_为空缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobileHitOurBlackList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitTongDunRepeateLoanOneMonth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idHitTongDunCourtExecuteList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idNameHitTongDunFuzzyCourtBlackList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idHitTongDunLoanBlackList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人的身份证号命中我方黑名单或申请人的手机号命中我方黑名单_1_未命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人的身份证号命中我方黑名单或申请人的手机号命中我方黑名单_2_未命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人的身份证号命中我方黑名单或申请人的手机号命中我方黑名单_1_命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人的身份证号命中我方黑名单或申请人的手机号命中我方黑名单_2_命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号命中网贷黑名单</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>手机号命中网贷黑名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未命中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>手机号命中网贷黑名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>手机号命中网贷黑名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>手机号命中网贷黑名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证和姓名命中网贷模糊黑名单</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证和姓名命中网贷模糊黑名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未命中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证和姓名命中网贷模糊黑名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证和姓名命中网贷模糊黑名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证和姓名命中网贷模糊黑名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证命中法院失信名单</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证命中法院失信名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未命中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证命中法院失信名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证命中法院失信名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证命中法院失信名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证和姓名命中网贷模糊黑名单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证和姓名命中法院失信模糊名单</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证和姓名命中法院失信模糊名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未命中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证和姓名命中法院失信模糊名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证和姓名命中法院失信模糊名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证和姓名命中法院失信模糊名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证命中犯罪通缉名单</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证命中犯罪通缉名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未命中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证命中犯罪通缉名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证命中犯罪通缉名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证命中犯罪通缉名单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证命中法院执行名单_未命中</t>
-  </si>
-  <si>
-    <t>身份证命中法院执行名单_命中</t>
-  </si>
-  <si>
-    <t>身份证命中法院执行名单_-1缺失</t>
-  </si>
-  <si>
-    <t>身份证命中法院执行名单_为空缺失</t>
-  </si>
-  <si>
-    <t>身份证命中法院执行名单</t>
-  </si>
-  <si>
-    <t>身份证和姓名命中法院执行模糊名单_未命中</t>
-  </si>
-  <si>
-    <t>身份证和姓名命中法院执行模糊名单_命中</t>
-  </si>
-  <si>
-    <t>身份证和姓名命中法院执行模糊名单_-1缺失</t>
-  </si>
-  <si>
-    <t>身份证和姓名命中法院执行模糊名单_为空缺失</t>
-  </si>
-  <si>
-    <t>身份证和姓名命中法院执行模糊名单</t>
-  </si>
-  <si>
-    <t>身份证命中公司法人失信名单_未命中</t>
-  </si>
-  <si>
-    <t>身份证命中公司法人失信名单</t>
-  </si>
-  <si>
-    <t>身份证命中公司法人失信名单_命中</t>
-  </si>
-  <si>
-    <t>身份证命中公司法人失信名单_-1缺失</t>
-  </si>
-  <si>
-    <t>身份证命中公司法人失信名单_为空缺失</t>
-  </si>
-  <si>
-    <t>手机号命中公司法人失信名单_未命中</t>
-  </si>
-  <si>
-    <t>手机号命中公司法人失信名单_命中</t>
-  </si>
-  <si>
-    <t>手机号命中公司法人失信名单_-1缺失</t>
-  </si>
-  <si>
-    <t>手机号命中公司法人失信名单_为空缺失</t>
-  </si>
-  <si>
-    <t>手机号命中公司法人失信名单</t>
-  </si>
-  <si>
-    <t>手机号命中贷款黑中介库_未命中</t>
-  </si>
-  <si>
-    <t>手机号命中贷款黑中介库_命中</t>
-  </si>
-  <si>
-    <t>手机号命中贷款黑中介库_-1缺失</t>
-  </si>
-  <si>
-    <t>手机号命中贷款黑中介库_为空缺失</t>
-  </si>
-  <si>
-    <t>手机号命中贷款黑中介库</t>
-  </si>
-  <si>
-    <t>同盾7天内多头借贷申请次数_-1缺失</t>
-  </si>
-  <si>
-    <t>同盾7天内多头借贷申请次数_为空缺失</t>
-  </si>
-  <si>
-    <t>ED020402</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天内多头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头占比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=0.7</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天内多头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头占比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;0.7</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天内多头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头占比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天内多头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头占比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天内多头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头占比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;70%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天内多头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头占比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;70%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ED0903</t>
-  </si>
-  <si>
-    <t>ED0902</t>
-  </si>
-  <si>
-    <t>同盾1个月内多头借贷申请次数_-1缺失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>hitBaiqishiRiskUserDecisionReject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中的中智诚黑名单数量大于等于1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中的中智诚黑名单数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中的中智诚黑名单数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中的中智诚黑名单数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中的中智诚黑名单数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中的中智诚黑名单数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitZhongzhichengBlackListCount</t>
-  </si>
-  <si>
-    <t>hitZhongzhichengTenantCount</t>
-  </si>
-  <si>
-    <t>命中的中智诚黑名单跨机构数大于等于1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中的中智诚黑名单跨机构数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中的中智诚黑名单跨机构数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中的中智诚黑名单跨机构数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中的中智诚黑名单跨机构数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中的中智诚黑名单跨机构数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险名单比对结果为拒绝</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>风险名单比对结果为拒绝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未命中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>风险名单比对结果为拒绝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>风险名单比对结果为拒绝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>风险名单比对结果为拒绝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为空缺失</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ED020413</t>
-  </si>
-  <si>
-    <t>ED0901</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=20</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;20</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=50</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;50</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=83</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;83</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=49</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=50</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同盾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月内多头借贷申请次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=51</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同盾7天内多头借贷申请次数&gt;20</t>
-  </si>
-  <si>
-    <t>同盾1个月内多头借贷申请次数&gt;50</t>
-  </si>
-  <si>
-    <t>同盾3个月内多头借贷申请次数&gt;83</t>
-  </si>
-  <si>
-    <t>同盾1个月内多头借贷申请次数&gt;=50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2412,6 +2041,18 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFC41A16"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC41A16"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2433,12 +2074,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2719,11 +2362,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y103"/>
+  <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X86" sqref="X86"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P88" sqref="P88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2731,18 +2374,18 @@
     <col min="1" max="1" width="75.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2754,13 +2397,13 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -2781,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="R1" t="s">
         <v>11</v>
@@ -2790,27 +2433,33 @@
         <v>12</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="V1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="W1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2875,19 +2524,25 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>126</v>
-      </c>
-      <c r="X2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>16</v>
+      <c r="W2">
+        <v>90</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2952,19 +2607,25 @@
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>126</v>
-      </c>
-      <c r="X3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>16</v>
+      <c r="W3">
+        <v>90</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3029,19 +2690,25 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>126</v>
-      </c>
-      <c r="X4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>16</v>
+      <c r="W4">
+        <v>90</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3106,19 +2773,25 @@
       <c r="V5">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>126</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>16</v>
+      <c r="W5">
+        <v>90</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3183,19 +2856,25 @@
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>126</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>16</v>
+      <c r="W6">
+        <v>90</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3260,19 +2939,25 @@
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>126</v>
-      </c>
-      <c r="X7" s="2">
+      <c r="W7">
+        <v>90</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z7" s="2">
         <v>-1</v>
       </c>
-      <c r="Y7" s="3" t="s">
-        <v>16</v>
+      <c r="AA7" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3313,6 +2998,9 @@
       <c r="N8">
         <v>0</v>
       </c>
+      <c r="O8">
+        <v>38</v>
+      </c>
       <c r="P8">
         <v>0</v>
       </c>
@@ -3334,22 +3022,28 @@
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>126</v>
-      </c>
-      <c r="X8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>16</v>
+      <c r="W8">
+        <v>90</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3411,22 +3105,28 @@
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>126</v>
-      </c>
-      <c r="X9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>20</v>
+      <c r="W9">
+        <v>90</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3488,22 +3188,28 @@
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>126</v>
-      </c>
-      <c r="X10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>20</v>
+      <c r="W10">
+        <v>90</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3565,22 +3271,31 @@
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>126</v>
-      </c>
-      <c r="X11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>20</v>
+      <c r="W11">
+        <v>90</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3639,25 +3354,31 @@
       <c r="V12">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>126</v>
-      </c>
-      <c r="X12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>20</v>
+      <c r="W12">
+        <v>90</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3716,25 +3437,31 @@
       <c r="V13">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>126</v>
-      </c>
-      <c r="X13" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>32</v>
+      <c r="W13">
+        <v>90</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3793,25 +3520,31 @@
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>126</v>
-      </c>
-      <c r="X14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>32</v>
+      <c r="W14">
+        <v>90</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3870,22 +3603,31 @@
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>126</v>
+      <c r="W15">
+        <v>90</v>
       </c>
       <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3944,25 +3686,31 @@
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>126</v>
+      <c r="W16">
+        <v>90</v>
       </c>
       <c r="X16">
-        <v>-1</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4021,25 +3769,31 @@
       <c r="V17">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>126</v>
-      </c>
-      <c r="X17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>32</v>
+      <c r="W17">
+        <v>90</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4098,25 +3852,31 @@
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>126</v>
-      </c>
-      <c r="X18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>20</v>
+      <c r="W18">
+        <v>90</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4175,25 +3935,31 @@
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>126</v>
-      </c>
-      <c r="X19" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>20</v>
+      <c r="W19">
+        <v>90</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4252,28 +4018,34 @@
       <c r="V20">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>126</v>
-      </c>
-      <c r="X20" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>32</v>
+      <c r="W20">
+        <v>90</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4329,28 +4101,34 @@
       <c r="V21">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>126</v>
+      <c r="W21">
+        <v>90</v>
       </c>
       <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>-1</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22">
-        <v>-1</v>
-      </c>
-      <c r="C22">
-        <v>-1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4406,19 +4184,31 @@
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>126</v>
+      <c r="W22">
+        <v>90</v>
       </c>
       <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z22">
         <v>-1</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="AA22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4477,25 +4267,37 @@
       <c r="V23">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>126</v>
+      <c r="W23">
+        <v>90</v>
       </c>
       <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4548,31 +4350,37 @@
       <c r="V24">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>126</v>
+      <c r="W24">
+        <v>90</v>
       </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>-1</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -4625,19 +4433,25 @@
       <c r="V25">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>126</v>
-      </c>
-      <c r="X25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>40</v>
+      <c r="W25">
+        <v>90</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4646,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4702,19 +4516,25 @@
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>126</v>
-      </c>
-      <c r="X26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>39</v>
+      <c r="W26">
+        <v>90</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4723,13 +4543,13 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -4779,31 +4599,40 @@
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>126</v>
+      <c r="W27">
+        <v>90</v>
       </c>
       <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>-1</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -4853,17 +4682,23 @@
       <c r="V28">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>126</v>
+      <c r="W28">
+        <v>90</v>
       </c>
       <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z28">
         <v>-1</v>
       </c>
-      <c r="Y28" s="3" t="s">
-        <v>39</v>
+      <c r="AA28" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -4930,17 +4765,23 @@
       <c r="V29">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>126</v>
-      </c>
-      <c r="X29" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y29" s="3" t="s">
+      <c r="W29">
+        <v>90</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA29" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -4954,13 +4795,13 @@
         <v>0</v>
       </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -5007,17 +4848,23 @@
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>126</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y30" s="3" t="s">
+      <c r="W30">
+        <v>90</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA30" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -5031,13 +4878,13 @@
         <v>0</v>
       </c>
       <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>-1</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -5084,19 +4931,25 @@
       <c r="V31">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>126</v>
+      <c r="W31">
+        <v>90</v>
       </c>
       <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z31">
         <v>-1</v>
       </c>
-      <c r="Y31" s="3" t="s">
+      <c r="AA31" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>60</v>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5105,6 +4958,9 @@
         <v>0</v>
       </c>
       <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
@@ -5158,19 +5014,25 @@
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>147</v>
+      <c r="W32">
+        <v>90</v>
       </c>
       <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>62</v>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5191,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -5235,19 +5097,25 @@
       <c r="V33">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>126</v>
-      </c>
-      <c r="X33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>61</v>
+      <c r="W33">
+        <v>90</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>63</v>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5262,13 +5130,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -5312,19 +5180,25 @@
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>126</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y34" s="4" t="s">
-        <v>71</v>
+      <c r="W34">
+        <v>90</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z34">
+        <v>-1</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>64</v>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5339,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -5389,19 +5263,25 @@
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>126</v>
+      <c r="W35">
+        <v>90</v>
       </c>
       <c r="X35">
-        <v>-1</v>
-      </c>
-      <c r="Y35" s="3" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>65</v>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5415,6 +5295,9 @@
       <c r="E36">
         <v>0</v>
       </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
       <c r="G36">
         <v>0</v>
       </c>
@@ -5422,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -5463,43 +5346,49 @@
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>126</v>
+      <c r="W36">
+        <v>90</v>
       </c>
       <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>-1</v>
-      </c>
-      <c r="Y36" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -5540,19 +5429,25 @@
       <c r="V37">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>126</v>
-      </c>
-      <c r="X37" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y37" s="3" t="s">
-        <v>66</v>
+      <c r="W37">
+        <v>90</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>68</v>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5570,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -5617,19 +5512,25 @@
       <c r="V38">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>126</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>66</v>
+      <c r="W38">
+        <v>90</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA38" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>69</v>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5647,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -5656,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -5694,43 +5595,52 @@
       <c r="V39">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>126</v>
+      <c r="W39">
+        <v>90</v>
       </c>
       <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA39" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>-1</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -5768,17 +5678,23 @@
       <c r="V40">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>126</v>
+      <c r="W40">
+        <v>90</v>
       </c>
       <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z40">
         <v>-1</v>
       </c>
-      <c r="Y40" s="3" t="s">
-        <v>66</v>
+      <c r="AA40" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>75</v>
       </c>
@@ -5845,17 +5761,23 @@
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>126</v>
-      </c>
-      <c r="X41" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>74</v>
+      <c r="W41">
+        <v>90</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA41" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
@@ -5878,16 +5800,16 @@
         <v>0</v>
       </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
         <v>1</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -5922,17 +5844,23 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>126</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>74</v>
+      <c r="W42">
+        <v>90</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>77</v>
       </c>
@@ -5955,16 +5883,16 @@
         <v>0</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>-1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -5999,19 +5927,25 @@
       <c r="V43">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>126</v>
+      <c r="W43">
+        <v>90</v>
       </c>
       <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z43">
         <v>-1</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>74</v>
+      <c r="AA43" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6029,6 +5963,9 @@
         <v>0</v>
       </c>
       <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
@@ -6073,19 +6010,25 @@
       <c r="V44">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>126</v>
+      <c r="W44">
+        <v>90</v>
       </c>
       <c r="X44">
-        <v>-1</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA44" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6118,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -6150,19 +6093,25 @@
       <c r="V45">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>126</v>
-      </c>
-      <c r="X45" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>79</v>
+      <c r="W45">
+        <v>90</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6186,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -6195,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -6227,19 +6176,25 @@
       <c r="V46">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>126</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y46" s="3" t="s">
-        <v>79</v>
+      <c r="W46">
+        <v>90</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6263,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -6304,19 +6259,25 @@
       <c r="V47">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>126</v>
+      <c r="W47">
+        <v>90</v>
       </c>
       <c r="X47">
-        <v>-1</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6339,6 +6300,9 @@
       <c r="H48">
         <v>0</v>
       </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
       <c r="J48">
         <v>0</v>
       </c>
@@ -6349,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -6378,55 +6342,61 @@
       <c r="V48">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>126</v>
+      <c r="W48">
+        <v>90</v>
       </c>
       <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>-1</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -6455,19 +6425,25 @@
       <c r="V49">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
-        <v>126</v>
-      </c>
-      <c r="X49" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y49" s="4" t="s">
-        <v>88</v>
+      <c r="W49">
+        <v>90</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z49">
+        <v>-1</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6494,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -6532,20 +6508,26 @@
       <c r="V50">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>126</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y50" s="3" t="s">
+      <c r="W50">
+        <v>90</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="B51">
         <v>0</v>
       </c>
@@ -6571,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -6583,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
         <v>38</v>
@@ -6609,55 +6591,64 @@
       <c r="V51">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>126</v>
+      <c r="W51">
+        <v>90</v>
       </c>
       <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
         <v>-1</v>
-      </c>
-      <c r="Y51" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
       </c>
       <c r="O52">
         <v>38</v>
@@ -6683,19 +6674,25 @@
       <c r="V52">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>126</v>
+      <c r="W52">
+        <v>90</v>
       </c>
       <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z52">
         <v>-1</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>88</v>
+      <c r="AA52" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6740,7 +6737,7 @@
         <v>38</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -6760,19 +6757,25 @@
       <c r="V53">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>126</v>
-      </c>
-      <c r="X53" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y53" s="4" t="s">
-        <v>93</v>
+      <c r="W53">
+        <v>90</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6802,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -6817,7 +6820,7 @@
         <v>38</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -6837,17 +6840,23 @@
       <c r="V54">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>126</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>93</v>
+      <c r="W54">
+        <v>90</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>91</v>
       </c>
@@ -6879,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -6894,7 +6903,7 @@
         <v>38</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -6914,20 +6923,26 @@
       <c r="V55">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
+      <c r="W55">
+        <v>90</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
-      <c r="Y55" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="B56">
         <v>0</v>
       </c>
@@ -6953,6 +6968,9 @@
         <v>0</v>
       </c>
       <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
@@ -6971,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -6988,19 +7006,25 @@
       <c r="V56">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>126</v>
+      <c r="W56">
+        <v>90</v>
       </c>
       <c r="X56">
-        <v>-1</v>
-      </c>
-      <c r="Y56" s="3" t="s">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7048,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -7065,19 +7089,25 @@
       <c r="V57">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
-        <v>126</v>
-      </c>
-      <c r="X57" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y57" s="4" t="s">
-        <v>95</v>
+      <c r="W57">
+        <v>90</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7110,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -7125,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -7142,19 +7172,25 @@
       <c r="V58">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
-        <v>126</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>95</v>
+      <c r="W58">
+        <v>90</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7187,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -7205,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -7219,19 +7255,25 @@
       <c r="V59">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
-        <v>126</v>
+      <c r="W59">
+        <v>90</v>
       </c>
       <c r="X59">
-        <v>-1</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7261,6 +7303,9 @@
         <v>0</v>
       </c>
       <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
@@ -7279,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -7293,19 +7338,25 @@
       <c r="V60">
         <v>0</v>
       </c>
-      <c r="W60" t="s">
-        <v>126</v>
+      <c r="W60">
+        <v>90</v>
       </c>
       <c r="X60">
-        <v>-1</v>
-      </c>
-      <c r="Y60" s="3" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z60" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7356,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -7370,19 +7421,25 @@
       <c r="V61">
         <v>0</v>
       </c>
-      <c r="W61" t="s">
-        <v>126</v>
-      </c>
-      <c r="X61" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y61" s="3" t="s">
-        <v>103</v>
+      <c r="W61">
+        <v>90</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7418,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -7436,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -7447,19 +7504,25 @@
       <c r="V62">
         <v>0</v>
       </c>
-      <c r="W62" t="s">
-        <v>126</v>
-      </c>
-      <c r="X62" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>103</v>
+      <c r="W62">
+        <v>90</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA62" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7495,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -7513,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>0.70009999999999994</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -7524,19 +7587,25 @@
       <c r="V63">
         <v>0</v>
       </c>
-      <c r="W63" t="s">
-        <v>126</v>
+      <c r="W63">
+        <v>90</v>
       </c>
       <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63" s="3" t="s">
-        <v>103</v>
+        <v>0</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA63" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7569,6 +7638,9 @@
         <v>0</v>
       </c>
       <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
@@ -7587,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -7598,19 +7670,25 @@
       <c r="V64">
         <v>0</v>
       </c>
-      <c r="W64" t="s">
-        <v>126</v>
+      <c r="W64">
+        <v>90</v>
       </c>
       <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z64">
         <v>-1</v>
       </c>
-      <c r="Y64" s="3" t="s">
-        <v>103</v>
+      <c r="AA64" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7658,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -7675,19 +7753,25 @@
       <c r="V65">
         <v>0</v>
       </c>
-      <c r="W65" t="s">
-        <v>126</v>
-      </c>
-      <c r="X65" t="s">
-        <v>18</v>
+      <c r="W65">
+        <v>90</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
       </c>
       <c r="Y65" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA65" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7726,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66">
         <v>38</v>
@@ -7735,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -7752,19 +7836,25 @@
       <c r="V66">
         <v>0</v>
       </c>
-      <c r="W66" t="s">
-        <v>126</v>
-      </c>
-      <c r="X66" s="2" t="s">
-        <v>111</v>
+      <c r="W66">
+        <v>90</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
       </c>
       <c r="Y66" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7803,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O67">
         <v>38</v>
@@ -7812,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -7829,19 +7919,25 @@
       <c r="V67">
         <v>0</v>
       </c>
-      <c r="W67" t="s">
-        <v>126</v>
+      <c r="W67">
+        <v>90</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y67" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA67" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>107</v>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -7877,6 +7973,9 @@
         <v>0</v>
       </c>
       <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
@@ -7886,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -7903,19 +8002,25 @@
       <c r="V68">
         <v>0</v>
       </c>
-      <c r="W68" t="s">
-        <v>126</v>
+      <c r="W68">
+        <v>90</v>
       </c>
       <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z68">
         <v>-1</v>
       </c>
-      <c r="Y68" t="s">
-        <v>108</v>
+      <c r="AA68" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -7960,7 +8065,7 @@
         <v>38</v>
       </c>
       <c r="P69">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -7980,19 +8085,25 @@
       <c r="V69">
         <v>0</v>
       </c>
-      <c r="W69" t="s">
-        <v>126</v>
-      </c>
-      <c r="X69" t="s">
-        <v>18</v>
+      <c r="W69">
+        <v>90</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
       </c>
       <c r="Y69" t="s">
-        <v>159</v>
+        <v>104</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA69" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8037,7 +8148,7 @@
         <v>38</v>
       </c>
       <c r="P70">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -8049,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70">
         <v>0</v>
@@ -8057,17 +8168,23 @@
       <c r="V70">
         <v>0</v>
       </c>
-      <c r="W70" t="s">
-        <v>126</v>
-      </c>
-      <c r="X70" s="2" t="s">
-        <v>149</v>
+      <c r="W70">
+        <v>90</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
       </c>
       <c r="Y70" t="s">
-        <v>159</v>
+        <v>104</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>109</v>
       </c>
@@ -8114,7 +8231,7 @@
         <v>38</v>
       </c>
       <c r="P71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -8126,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U71">
         <v>0</v>
@@ -8134,17 +8251,23 @@
       <c r="V71">
         <v>0</v>
       </c>
-      <c r="W71" t="s">
-        <v>126</v>
+      <c r="W71">
+        <v>90</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y71" t="s">
-        <v>159</v>
+        <v>104</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA71" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>110</v>
       </c>
@@ -8190,6 +8313,9 @@
       <c r="O72">
         <v>38</v>
       </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
       <c r="Q72">
         <v>0</v>
       </c>
@@ -8200,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -8208,19 +8334,25 @@
       <c r="V72">
         <v>0</v>
       </c>
-      <c r="W72" t="s">
-        <v>126</v>
+      <c r="W72">
+        <v>90</v>
       </c>
       <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z72">
         <v>-1</v>
       </c>
-      <c r="Y72" t="s">
-        <v>159</v>
+      <c r="AA72" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8268,7 +8400,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R73">
         <v>0</v>
@@ -8285,19 +8417,25 @@
       <c r="V73">
         <v>0</v>
       </c>
-      <c r="W73" t="s">
-        <v>126</v>
-      </c>
-      <c r="X73" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y73" s="3" t="s">
-        <v>160</v>
+      <c r="W73">
+        <v>90</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA73" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8345,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -8357,24 +8495,30 @@
         <v>0</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V74">
         <v>0</v>
       </c>
-      <c r="W74" t="s">
-        <v>126</v>
-      </c>
-      <c r="X74" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y74" s="3" t="s">
-        <v>160</v>
+      <c r="W74">
+        <v>90</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8422,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R75">
         <v>0</v>
@@ -8434,24 +8578,30 @@
         <v>0</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V75">
         <v>0</v>
       </c>
-      <c r="W75" t="s">
-        <v>126</v>
+      <c r="W75">
+        <v>90</v>
       </c>
       <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75" s="3" t="s">
-        <v>160</v>
+        <v>0</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA75" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8498,6 +8648,9 @@
       <c r="P76">
         <v>0</v>
       </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
       <c r="R76">
         <v>0</v>
       </c>
@@ -8508,24 +8661,30 @@
         <v>0</v>
       </c>
       <c r="U76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V76">
         <v>0</v>
       </c>
-      <c r="W76" t="s">
-        <v>126</v>
+      <c r="W76">
+        <v>90</v>
       </c>
       <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z76">
         <v>-1</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>160</v>
+      <c r="AA76" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -8576,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="R77">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -8590,19 +8749,25 @@
       <c r="V77">
         <v>0</v>
       </c>
-      <c r="W77" t="s">
-        <v>126</v>
-      </c>
-      <c r="X77" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y77" s="3" t="s">
-        <v>161</v>
+      <c r="W77">
+        <v>90</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA77" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -8653,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="R78">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -8665,21 +8830,27 @@
         <v>0</v>
       </c>
       <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="W78" t="s">
-        <v>126</v>
-      </c>
-      <c r="X78" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y78" s="3" t="s">
-        <v>161</v>
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <v>90</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA78" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -8730,33 +8901,39 @@
         <v>0</v>
       </c>
       <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
         <v>-1</v>
       </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79" t="s">
-        <v>126</v>
+      <c r="W79">
+        <v>90</v>
       </c>
       <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z79">
         <v>-1</v>
       </c>
-      <c r="Y79" s="3" t="s">
-        <v>161</v>
+      <c r="AA79" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -8806,6 +8983,9 @@
       <c r="Q80">
         <v>0</v>
       </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
       <c r="S80">
         <v>0</v>
       </c>
@@ -8816,21 +8996,27 @@
         <v>0</v>
       </c>
       <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80" t="s">
-        <v>126</v>
+        <v>-1</v>
+      </c>
+      <c r="W80">
+        <v>90</v>
       </c>
       <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80" s="3" t="s">
-        <v>161</v>
+        <v>91</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA80" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>116</v>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -8884,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="S81">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -8893,21 +9079,27 @@
         <v>0</v>
       </c>
       <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81" t="s">
-        <v>126</v>
-      </c>
-      <c r="X81" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y81" s="4" t="s">
-        <v>121</v>
+        <v>-1</v>
+      </c>
+      <c r="W81">
+        <v>90</v>
+      </c>
+      <c r="X81">
+        <v>90</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA81" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -8961,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="S82">
-        <v>0.70009999999999994</v>
+        <v>0</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -8970,21 +9162,27 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82" t="s">
-        <v>126</v>
-      </c>
-      <c r="X82" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y82" s="4" t="s">
-        <v>122</v>
+        <v>-1</v>
+      </c>
+      <c r="W82">
+        <v>90</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA82" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -9038,1550 +9236,31 @@
         <v>0</v>
       </c>
       <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
         <v>-1</v>
       </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83" t="s">
-        <v>126</v>
+      <c r="W83">
+        <v>90</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
-      <c r="Y83" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>38</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="T84">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84" t="s">
-        <v>126</v>
-      </c>
-      <c r="X84">
+      <c r="Y83" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z83">
         <v>-1</v>
       </c>
-      <c r="Y84" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85">
-        <v>38</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>49</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85" t="s">
-        <v>126</v>
-      </c>
-      <c r="X85" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y85" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-      <c r="O86">
-        <v>38</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>50</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86" t="s">
-        <v>126</v>
-      </c>
-      <c r="X86" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y86" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
-      <c r="O87">
-        <v>38</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>51</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-      <c r="T87">
-        <v>0</v>
-      </c>
-      <c r="U87">
-        <v>0</v>
-      </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
-      <c r="W87" t="s">
-        <v>126</v>
-      </c>
-      <c r="X87" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y87" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <v>38</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>-1</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-      <c r="S88">
-        <v>0</v>
-      </c>
-      <c r="T88">
-        <v>0</v>
-      </c>
-      <c r="U88">
-        <v>0</v>
-      </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
-      <c r="W88" t="s">
-        <v>126</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>38</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-      <c r="T89">
-        <v>0</v>
-      </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
-      <c r="W89" t="s">
-        <v>126</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <v>38</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
-      <c r="T90">
-        <v>0</v>
-      </c>
-      <c r="U90">
-        <v>0</v>
-      </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
-      <c r="W90" t="s">
-        <v>126</v>
-      </c>
-      <c r="X90" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y90" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <v>38</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-      <c r="S91">
-        <v>0</v>
-      </c>
-      <c r="T91">
-        <v>1</v>
-      </c>
-      <c r="U91">
-        <v>0</v>
-      </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
-      <c r="W91" t="s">
-        <v>126</v>
-      </c>
-      <c r="X91" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <v>38</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <v>0</v>
-      </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
-      <c r="U92">
-        <v>0</v>
-      </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
-      <c r="W92" t="s">
-        <v>126</v>
-      </c>
-      <c r="X92" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y92" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>38</v>
-      </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-      <c r="S93">
-        <v>0</v>
-      </c>
-      <c r="T93">
-        <v>-1</v>
-      </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
-      <c r="V93">
-        <v>0</v>
-      </c>
-      <c r="W93" t="s">
-        <v>126</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>38</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-      <c r="S94">
-        <v>0</v>
-      </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
-      <c r="W94" t="s">
-        <v>126</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>38</v>
-      </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-      <c r="S95">
-        <v>0</v>
-      </c>
-      <c r="T95">
-        <v>0</v>
-      </c>
-      <c r="U95">
-        <v>0</v>
-      </c>
-      <c r="V95">
-        <v>0</v>
-      </c>
-      <c r="W95" t="s">
-        <v>126</v>
-      </c>
-      <c r="X95" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y95" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <v>38</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-      <c r="S96">
-        <v>0</v>
-      </c>
-      <c r="T96">
-        <v>0</v>
-      </c>
-      <c r="U96">
-        <v>1</v>
-      </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
-      <c r="W96" t="s">
-        <v>126</v>
-      </c>
-      <c r="X96" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y96" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>0</v>
-      </c>
-      <c r="O97">
-        <v>38</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-      <c r="S97">
-        <v>0</v>
-      </c>
-      <c r="T97">
-        <v>0</v>
-      </c>
-      <c r="U97">
-        <v>2</v>
-      </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
-      <c r="W97" t="s">
-        <v>126</v>
-      </c>
-      <c r="X97" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y97" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-      <c r="N98">
-        <v>0</v>
-      </c>
-      <c r="O98">
-        <v>38</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-      <c r="S98">
-        <v>0</v>
-      </c>
-      <c r="T98">
-        <v>0</v>
-      </c>
-      <c r="U98">
-        <v>-1</v>
-      </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
-      <c r="W98" t="s">
-        <v>126</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="N99">
-        <v>0</v>
-      </c>
-      <c r="O99">
-        <v>38</v>
-      </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
-      <c r="S99">
-        <v>0</v>
-      </c>
-      <c r="T99">
-        <v>0</v>
-      </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
-      <c r="W99" t="s">
-        <v>126</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>38</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-      <c r="S100">
-        <v>0</v>
-      </c>
-      <c r="T100">
-        <v>0</v>
-      </c>
-      <c r="U100">
-        <v>0</v>
-      </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
-      <c r="W100" t="s">
-        <v>126</v>
-      </c>
-      <c r="X100" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y100" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-      <c r="O101">
-        <v>38</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
-      <c r="S101">
-        <v>0</v>
-      </c>
-      <c r="T101">
-        <v>0</v>
-      </c>
-      <c r="U101">
-        <v>0</v>
-      </c>
-      <c r="V101">
-        <v>1</v>
-      </c>
-      <c r="W101" t="s">
-        <v>126</v>
-      </c>
-      <c r="X101" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y101" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="L102">
-        <v>0</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-      <c r="N102">
-        <v>0</v>
-      </c>
-      <c r="O102">
-        <v>38</v>
-      </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>0</v>
-      </c>
-      <c r="S102">
-        <v>0</v>
-      </c>
-      <c r="T102">
-        <v>0</v>
-      </c>
-      <c r="U102">
-        <v>0</v>
-      </c>
-      <c r="V102">
-        <v>-1</v>
-      </c>
-      <c r="W102" t="s">
-        <v>126</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
-      <c r="Y102" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <v>38</v>
-      </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
-      <c r="S103">
-        <v>0</v>
-      </c>
-      <c r="T103">
-        <v>0</v>
-      </c>
-      <c r="U103">
-        <v>0</v>
-      </c>
-      <c r="W103" t="s">
-        <v>126</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103" s="3" t="s">
-        <v>142</v>
+      <c r="AA83" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
